--- a/biology/Zoologie/Chirocephalus/Chirocephalus.xlsx
+++ b/biology/Zoologie/Chirocephalus/Chirocephalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chirocephalus est un genre de crustacés branchiopodes dont les espèces se développent dans des mares temporaires.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (5 novembre 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (5 novembre 2018) :
 Chirocephalus appendicularis Vavra, 1905
 Chirocephalus baikalensis (Naganawa &amp; Orgiljanova, 2000)
 Chirocephalus bairdi (Brauer, 1877)
@@ -558,7 +572,7 @@
 Chirocephalus vornatscheri Flossner, 1980
 Chirocephalus wangi Hsü, 1933
 Chirocephalus weisigi Smirnov, 1933
-Selon Catalogue of Life                                   (14 décembre 2017)[4] :
+Selon Catalogue of Life                                   (14 décembre 2017) :
 Chirocephalus appendicularis Vavra, 1905
 Chirocephalus baikalensis (Naganawa &amp; Orgiljanova, 2000)
 Chirocephalus bairdi (Brauer, 1877)
@@ -604,7 +618,7 @@
 Chirocephalus vornatscheri Brtek, 1968
 Chirocephalus wangi Hsü, 1933
 Chirocephalus weisigi Smirnov, 1933
-Selon ITIS      (14 décembre 2017)[1] :
+Selon ITIS      (14 décembre 2017) :
 Chirocephalus appendicularis Vavra, 1905
 Chirocephalus baikalensis (Naganawa &amp; Orgiljanova, 2000)
 Chirocephalus bairdi (Brauer, 1877)
@@ -650,7 +664,7 @@
 Chirocephalus vornatscheri Brtek, 1968
 Chirocephalus wangi Hsü, 1933
 Chirocephalus weisigi Smirnov, 1933
-Selon NCBI  (14 décembre 2017)[5] :
+Selon NCBI  (14 décembre 2017) :
 Chirocephalus bairdi
 Chirocephalus croaticus
 Chirocephalus diaphanus
